--- a/internal/app/helpers/scripts/procurement_vendors_02_11_23.xlsx
+++ b/internal/app/helpers/scripts/procurement_vendors_02_11_23.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subash/GoLang/src/github.com/voonik/ss2/internal/app/helpers/scripts/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C5AB06-2C7F-FB43-ABF5-F43C5C3EAC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1875,19 +1884,21 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="10.0"/>
-        <u/>
+        <family val="2"/>
       </rPr>
       <t>Sindabad.com</t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-        <u/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Limited</t>
     </r>
@@ -3696,27 +3707,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3724,7 +3747,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3734,71 +3757,78 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -3988,20 +4018,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="11" max="11" width="12.6640625" style="14"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4032,46 +4070,46 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -4081,32 +4119,32 @@
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="3">
-        <v>22.0</v>
+      <c r="G3" s="1">
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="1">
-        <v>1.20260946E8</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="K3" s="11">
+        <v>120260946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -4116,32 +4154,32 @@
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3">
-        <v>10.0</v>
+      <c r="G4" s="1">
+        <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -4151,17 +4189,17 @@
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3">
-        <v>10.0</v>
+      <c r="G5" s="1">
+        <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>42</v>
@@ -4172,11 +4210,11 @@
       <c r="J5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -4186,17 +4224,17 @@
       <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="3">
-        <v>23.0</v>
+      <c r="G6" s="1">
+        <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>52</v>
@@ -4207,11 +4245,11 @@
       <c r="J6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="1">
-        <v>1.25260738E8</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="K6" s="11">
+        <v>125260738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,7 +4259,7 @@
       <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4230,23 +4268,23 @@
       <c r="F7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="3">
-        <v>43.0</v>
+      <c r="G7" s="1">
+        <v>43</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I7" s="2">
-        <v>1.223483033001E12</v>
+        <v>1223483033001</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="1">
-        <v>2.25274187E8</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="K7" s="11">
+        <v>225274187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -4256,7 +4294,7 @@
       <c r="C8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4265,23 +4303,23 @@
       <c r="F8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="3">
-        <v>43.0</v>
+      <c r="G8" s="1">
+        <v>43</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>67</v>
       </c>
       <c r="I8" s="2">
-        <v>1.401382891001E12</v>
+        <v>1401382891001</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="1">
-        <v>2.25276851E8</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="K8" s="11">
+        <v>225276851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
@@ -4291,32 +4329,32 @@
       <c r="C9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="3">
-        <v>32.0</v>
+      <c r="G9" s="1">
+        <v>32</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>70</v>
       </c>
       <c r="I9" s="2">
-        <v>1.6811100000205E13</v>
+        <v>16811100000205</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="1">
-        <v>2.35260307E8</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="K9" s="11">
+        <v>235260307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
@@ -4326,7 +4364,7 @@
       <c r="C10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4335,23 +4373,23 @@
       <c r="F10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="3">
-        <v>47.0</v>
+      <c r="G10" s="1">
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>82</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="1">
-        <v>2.45261183E8</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="K10" s="11">
+        <v>245261183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>84</v>
       </c>
@@ -4361,17 +4399,17 @@
       <c r="C11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="3">
-        <v>23.0</v>
+      <c r="G11" s="1">
+        <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>85</v>
@@ -4382,11 +4420,11 @@
       <c r="J11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="1">
-        <v>1.25274182E8</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="K11" s="11">
+        <v>125274182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
@@ -4396,32 +4434,32 @@
       <c r="C12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="3">
-        <v>15.0</v>
+      <c r="G12" s="1">
+        <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>96</v>
       </c>
       <c r="I12" s="2">
-        <v>2.061000015472E12</v>
+        <v>2061000015472</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -4431,17 +4469,17 @@
       <c r="C13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="3">
-        <v>10.0</v>
+      <c r="G13" s="1">
+        <v>10</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>100</v>
@@ -4452,11 +4490,11 @@
       <c r="J13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>107</v>
       </c>
@@ -4466,32 +4504,32 @@
       <c r="C14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="3">
-        <v>39.0</v>
+      <c r="G14" s="1">
+        <v>39</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>114</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="1">
-        <v>2.05260432E8</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="K14" s="11">
+        <v>205260432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>116</v>
       </c>
@@ -4501,32 +4539,32 @@
       <c r="C15" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="3">
-        <v>19.0</v>
+      <c r="G15" s="1">
+        <v>19</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>122</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K15" s="1">
-        <v>1.05264196E8</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="K15" s="11">
+        <v>105264196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>124</v>
       </c>
@@ -4536,32 +4574,32 @@
       <c r="C16" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="3">
-        <v>26.0</v>
+      <c r="G16" s="1">
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>125</v>
       </c>
       <c r="I16" s="2">
-        <v>1.14711124240337E14</v>
+        <v>114711124240337</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K16" s="1">
-        <v>1.40263707E8</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="K16" s="11">
+        <v>140263707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>131</v>
       </c>
@@ -4571,32 +4609,32 @@
       <c r="C17" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="3">
-        <v>32.0</v>
+      <c r="G17" s="1">
+        <v>32</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>136</v>
       </c>
       <c r="I17" s="2">
-        <v>2.132312010122E12</v>
+        <v>2132312010122</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K17" s="1">
-        <v>1.70260433E8</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="K17" s="11">
+        <v>170260433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>138</v>
       </c>
@@ -4606,32 +4644,32 @@
       <c r="C18" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G18" s="3">
-        <v>16.0</v>
+      <c r="G18" s="1">
+        <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>144</v>
       </c>
       <c r="I18" s="2">
-        <v>1.071100011479E12</v>
+        <v>1071100011479</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>147</v>
       </c>
@@ -4641,32 +4679,32 @@
       <c r="C19" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="3">
-        <v>32.0</v>
+      <c r="G19" s="1">
+        <v>32</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>148</v>
       </c>
       <c r="I19" s="2">
-        <v>2.110114008223E12</v>
+        <v>2110114008223</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="1">
-        <v>1.70263193E8</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="K19" s="11">
+        <v>170263193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>153</v>
       </c>
@@ -4676,32 +4714,32 @@
       <c r="C20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="3">
-        <v>31.0</v>
+      <c r="G20" s="1">
+        <v>31</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>160</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K20" s="1">
-        <v>1.65261184E8</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="K20" s="11">
+        <v>165261184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>162</v>
       </c>
@@ -4711,32 +4749,32 @@
       <c r="C21" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="3">
-        <v>15.0</v>
+      <c r="G21" s="1">
+        <v>15</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>163</v>
       </c>
       <c r="I21" s="2">
-        <v>1.17150000002E12</v>
+        <v>1171500000020</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>169</v>
       </c>
@@ -4746,17 +4784,17 @@
       <c r="C22" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>172</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G22" s="3">
-        <v>41.0</v>
+      <c r="G22" s="1">
+        <v>41</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>175</v>
@@ -4767,11 +4805,11 @@
       <c r="J22" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K22" s="1">
-        <v>2.15261726E8</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="K22" s="11">
+        <v>215261726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>178</v>
       </c>
@@ -4781,7 +4819,7 @@
       <c r="C23" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -4790,23 +4828,23 @@
       <c r="F23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="3">
-        <v>47.0</v>
+      <c r="G23" s="1">
+        <v>47</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="6" t="s">
         <v>183</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K23" s="1">
-        <v>2.45263194E8</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="K23" s="11">
+        <v>245263194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>185</v>
       </c>
@@ -4816,32 +4854,32 @@
       <c r="C24" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>188</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="G24" s="3">
-        <v>37.0</v>
+      <c r="G24" s="1">
+        <v>37</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>186</v>
       </c>
       <c r="I24" s="2">
-        <v>1.111330007244E12</v>
+        <v>1111330007244</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="K24" s="1">
-        <v>1.95260713E8</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="K24" s="11">
+        <v>195260713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>192</v>
       </c>
@@ -4851,32 +4889,32 @@
       <c r="C25" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="3">
-        <v>15.0</v>
+      <c r="G25" s="1">
+        <v>15</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>193</v>
       </c>
       <c r="I25" s="2">
-        <v>1.021000003278E12</v>
+        <v>1021000003278</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>199</v>
       </c>
@@ -4886,32 +4924,32 @@
       <c r="C26" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>202</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G26" s="3">
-        <v>12.0</v>
+      <c r="G26" s="1">
+        <v>12</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="6" t="s">
         <v>205</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>208</v>
       </c>
@@ -4921,17 +4959,17 @@
       <c r="C27" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>211</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G27" s="3">
-        <v>41.0</v>
+      <c r="G27" s="1">
+        <v>41</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>209</v>
@@ -4942,11 +4980,11 @@
       <c r="J27" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K27" s="1">
-        <v>2.15261726E8</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="K27" s="11">
+        <v>215261726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>215</v>
       </c>
@@ -4956,32 +4994,32 @@
       <c r="C28" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>218</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="G28" s="3">
-        <v>24.0</v>
+      <c r="G28" s="1">
+        <v>24</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>216</v>
       </c>
       <c r="I28" s="2">
-        <v>3.00320000506E11</v>
+        <v>300320000506</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="K28" s="1">
-        <v>1.30260431E8</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="K28" s="11">
+        <v>130260431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>222</v>
       </c>
@@ -4991,32 +5029,32 @@
       <c r="C29" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G29" s="3">
-        <v>18.0</v>
+      <c r="G29" s="1">
+        <v>18</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="6" t="s">
         <v>229</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="K29" s="1">
-        <v>1.0027394E8</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="K29" s="11">
+        <v>100273940</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>231</v>
       </c>
@@ -5026,17 +5064,17 @@
       <c r="C30" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>234</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="3">
-        <v>10.0</v>
+      <c r="G30" s="1">
+        <v>10</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>236</v>
@@ -5047,11 +5085,11 @@
       <c r="J30" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="12" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>240</v>
       </c>
@@ -5061,32 +5099,32 @@
       <c r="C31" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>243</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G31" s="3">
-        <v>33.0</v>
+      <c r="G31" s="1">
+        <v>33</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>246</v>
       </c>
       <c r="I31" s="2">
-        <v>3.55510200264E12</v>
+        <v>3555102002640</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="K31" s="1">
-        <v>1.75275357E8</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="K31" s="11">
+        <v>175275357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>248</v>
       </c>
@@ -5096,17 +5134,17 @@
       <c r="C32" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="3">
-        <v>16.0</v>
+      <c r="G32" s="1">
+        <v>16</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>249</v>
@@ -5117,11 +5155,11 @@
       <c r="J32" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>256</v>
       </c>
@@ -5131,32 +5169,32 @@
       <c r="C33" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>259</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G33" s="3">
-        <v>18.0</v>
+      <c r="G33" s="1">
+        <v>18</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>257</v>
       </c>
       <c r="I33" s="2">
-        <v>1.2411100012322E13</v>
+        <v>12411100012322</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="K33" s="1">
-        <v>1.00261149E8</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="K33" s="11">
+        <v>100261149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>262</v>
       </c>
@@ -5166,32 +5204,32 @@
       <c r="C34" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G34" s="3">
-        <v>17.0</v>
+      <c r="G34" s="1">
+        <v>17</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>268</v>
       </c>
       <c r="I34" s="2">
-        <v>1.341070053598E12</v>
+        <v>1341070053598</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="12" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>271</v>
       </c>
@@ -5201,32 +5239,32 @@
       <c r="C35" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G35" s="3">
-        <v>12.0</v>
+      <c r="G35" s="1">
+        <v>12</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="6" t="s">
         <v>277</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="12" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>280</v>
       </c>
@@ -5236,32 +5274,32 @@
       <c r="C36" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>283</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="G36" s="3">
-        <v>36.0</v>
+      <c r="G36" s="1">
+        <v>36</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>286</v>
       </c>
       <c r="I36" s="2">
-        <v>4.05711100000512E14</v>
+        <v>405711100000512</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="K36" s="1">
-        <v>1.90260871E8</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="K36" s="11">
+        <v>190260871</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>288</v>
       </c>
@@ -5271,32 +5309,32 @@
       <c r="C37" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>291</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G37" s="3">
-        <v>2.0</v>
+      <c r="G37" s="1">
+        <v>2</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>294</v>
       </c>
       <c r="I37" s="2">
-        <v>1.171220000296E12</v>
+        <v>1171220000296</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="12" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>297</v>
       </c>
@@ -5306,17 +5344,17 @@
       <c r="C38" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>300</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G38" s="3">
-        <v>3.0</v>
+      <c r="G38" s="1">
+        <v>3</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>303</v>
@@ -5327,11 +5365,11 @@
       <c r="J38" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>307</v>
       </c>
@@ -5341,32 +5379,32 @@
       <c r="C39" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>310</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G39" s="3">
-        <v>12.0</v>
+      <c r="G39" s="1">
+        <v>12</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>308</v>
       </c>
       <c r="I39" s="2">
-        <v>1.23605052E9</v>
+        <v>1236050520</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="K39" s="1">
-        <v>7.0274037E7</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="K39" s="11">
+        <v>70274037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>313</v>
       </c>
@@ -5376,7 +5414,7 @@
       <c r="C40" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="1" t="s">
         <v>316</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -5385,8 +5423,8 @@
       <c r="F40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G40" s="3">
-        <v>47.0</v>
+      <c r="G40" s="1">
+        <v>47</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>314</v>
@@ -5397,11 +5435,11 @@
       <c r="J40" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="K40" s="1">
-        <v>2.45261475E8</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="K40" s="11">
+        <v>245261475</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>320</v>
       </c>
@@ -5411,32 +5449,32 @@
       <c r="C41" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="1" t="s">
         <v>323</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="3">
-        <v>32.0</v>
+      <c r="G41" s="1">
+        <v>32</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>325</v>
       </c>
       <c r="I41" s="2">
-        <v>3.108111004391E12</v>
+        <v>3108111004391</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="K41" s="1">
-        <v>1.70272892E8</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="K41" s="11">
+        <v>170272892</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>327</v>
       </c>
@@ -5446,32 +5484,32 @@
       <c r="C42" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G42" s="3">
-        <v>21.0</v>
+      <c r="G42" s="1">
+        <v>21</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="6" t="s">
         <v>334</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="K42" s="1">
-        <v>1.15261121E8</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="K42" s="11">
+        <v>115261121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>336</v>
       </c>
@@ -5481,32 +5519,32 @@
       <c r="C43" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="1" t="s">
         <v>339</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G43" s="3">
-        <v>32.0</v>
+      <c r="G43" s="1">
+        <v>32</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="6" t="s">
         <v>341</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K43" s="1">
-        <v>2.35261722E8</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="K43" s="11">
+        <v>235261722</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>342</v>
       </c>
@@ -5516,17 +5554,17 @@
       <c r="C44" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="1" t="s">
         <v>345</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G44" s="3">
-        <v>16.0</v>
+      <c r="G44" s="1">
+        <v>16</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>347</v>
@@ -5537,11 +5575,11 @@
       <c r="J44" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="K44" s="12" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>351</v>
       </c>
@@ -5551,32 +5589,32 @@
       <c r="C45" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>354</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G45" s="3">
-        <v>2.0</v>
+      <c r="G45" s="1">
+        <v>2</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="6" t="s">
         <v>356</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="K45" s="8" t="s">
+      <c r="K45" s="12" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>359</v>
       </c>
@@ -5586,17 +5624,17 @@
       <c r="C46" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="1" t="s">
         <v>362</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="3">
-        <v>10.0</v>
+      <c r="G46" s="1">
+        <v>10</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>360</v>
@@ -5607,11 +5645,11 @@
       <c r="J46" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="K46" s="8" t="s">
+      <c r="K46" s="12" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>367</v>
       </c>
@@ -5621,32 +5659,32 @@
       <c r="C47" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="1" t="s">
         <v>370</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="3">
-        <v>43.0</v>
+      <c r="G47" s="1">
+        <v>43</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>372</v>
       </c>
       <c r="I47" s="2">
-        <v>1.502884048001E12</v>
+        <v>1502884048001</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="K47" s="1">
-        <v>2.25263527E8</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="K47" s="11">
+        <v>225263527</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>374</v>
       </c>
@@ -5656,17 +5694,17 @@
       <c r="C48" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="1" t="s">
         <v>377</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="3">
-        <v>10.0</v>
+      <c r="G48" s="1">
+        <v>10</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>375</v>
@@ -5677,11 +5715,11 @@
       <c r="J48" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="K48" s="8" t="s">
+      <c r="K48" s="12" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>382</v>
       </c>
@@ -5691,17 +5729,17 @@
       <c r="C49" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="1" t="s">
         <v>385</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G49" s="3">
-        <v>39.0</v>
+      <c r="G49" s="1">
+        <v>39</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>387</v>
@@ -5712,11 +5750,11 @@
       <c r="J49" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K49" s="1">
-        <v>2.05270248E8</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="K49" s="11">
+        <v>205270248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>390</v>
       </c>
@@ -5726,17 +5764,17 @@
       <c r="C50" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="1" t="s">
         <v>393</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="G50" s="3">
-        <v>11.0</v>
+      <c r="G50" s="1">
+        <v>11</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>396</v>
@@ -5747,11 +5785,11 @@
       <c r="J50" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="K50" s="8" t="s">
+      <c r="K50" s="12" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>400</v>
       </c>
@@ -5761,32 +5799,32 @@
       <c r="C51" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="1" t="s">
         <v>403</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G51" s="3">
-        <v>31.0</v>
+      <c r="G51" s="1">
+        <v>31</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" s="6" t="s">
         <v>405</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K51" s="1">
-        <v>1.65260435E8</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="K51" s="11">
+        <v>165260435</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>406</v>
       </c>
@@ -5796,32 +5834,32 @@
       <c r="C52" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="1" t="s">
         <v>409</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G52" s="3">
-        <v>32.0</v>
+      <c r="G52" s="1">
+        <v>32</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>407</v>
       </c>
       <c r="I52" s="2">
-        <v>1.4111010017199E13</v>
+        <v>14111010017199</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="K52" s="1">
-        <v>1.70263614E8</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="K52" s="11">
+        <v>170263614</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>412</v>
       </c>
@@ -5831,32 +5869,32 @@
       <c r="C53" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="1" t="s">
         <v>415</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G53" s="3">
-        <v>43.0</v>
+      <c r="G53" s="1">
+        <v>43</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>413</v>
       </c>
       <c r="I53" s="2">
-        <v>1.403608432001E12</v>
+        <v>1403608432001</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="K53" s="1">
-        <v>2.25260438E8</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="K53" s="11">
+        <v>225260438</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>418</v>
       </c>
@@ -5866,32 +5904,32 @@
       <c r="C54" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="1" t="s">
         <v>421</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G54" s="3">
-        <v>12.0</v>
+      <c r="G54" s="1">
+        <v>12</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>423</v>
       </c>
       <c r="I54" s="2">
-        <v>6.2733000154E10</v>
+        <v>62733000154</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="K54" s="8" t="s">
+      <c r="K54" s="12" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>426</v>
       </c>
@@ -5901,32 +5939,32 @@
       <c r="C55" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="1" t="s">
         <v>429</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G55" s="3">
-        <v>43.0</v>
+      <c r="G55" s="1">
+        <v>43</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>427</v>
       </c>
       <c r="I55" s="2">
-        <v>1.252793807001E12</v>
+        <v>1252793807001</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K55" s="1">
-        <v>2.25261729E8</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="K55" s="11">
+        <v>225261729</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>431</v>
       </c>
@@ -5936,32 +5974,32 @@
       <c r="C56" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="1" t="s">
         <v>434</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G56" s="3">
-        <v>43.0</v>
+      <c r="G56" s="1">
+        <v>43</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>432</v>
       </c>
       <c r="I56" s="2">
-        <v>1.502555462001E12</v>
+        <v>1502555462001</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="K56" s="1">
-        <v>2.25273254E8</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="K56" s="11">
+        <v>225273254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>437</v>
       </c>
@@ -5971,17 +6009,17 @@
       <c r="C57" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="1" t="s">
         <v>440</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="3">
-        <v>10.0</v>
+      <c r="G57" s="1">
+        <v>10</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>442</v>
@@ -5992,11 +6030,11 @@
       <c r="J57" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="K57" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>445</v>
       </c>
@@ -6006,7 +6044,7 @@
       <c r="C58" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="1" t="s">
         <v>448</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -6015,8 +6053,8 @@
       <c r="F58" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G58" s="3">
-        <v>47.0</v>
+      <c r="G58" s="1">
+        <v>47</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>446</v>
@@ -6027,11 +6065,11 @@
       <c r="J58" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K58" s="1">
-        <v>2.45263707E8</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="K58" s="11">
+        <v>245263707</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>451</v>
       </c>
@@ -6041,32 +6079,32 @@
       <c r="C59" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="1" t="s">
         <v>454</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G59" s="3">
-        <v>17.0</v>
+      <c r="G59" s="1">
+        <v>17</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>452</v>
       </c>
       <c r="I59" s="2">
-        <v>1.171070040686E12</v>
+        <v>1171070040686</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K59" s="8" t="s">
+      <c r="K59" s="12" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>457</v>
       </c>
@@ -6076,7 +6114,7 @@
       <c r="C60" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="1" t="s">
         <v>460</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -6085,23 +6123,23 @@
       <c r="F60" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G60" s="3">
-        <v>47.0</v>
+      <c r="G60" s="1">
+        <v>47</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>458</v>
       </c>
       <c r="I60" s="2">
-        <v>2.101000007161E12</v>
+        <v>2101000007161</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="K60" s="1">
-        <v>2.45276581E8</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="K60" s="11">
+        <v>245276581</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>463</v>
       </c>
@@ -6111,32 +6149,32 @@
       <c r="C61" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="1" t="s">
         <v>466</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G61" s="3">
-        <v>32.0</v>
+      <c r="G61" s="1">
+        <v>32</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>468</v>
       </c>
       <c r="I61" s="2">
-        <v>3.133113011559E12</v>
+        <v>3133113011559</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="K61" s="1">
-        <v>1.70262231E8</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="K61" s="11">
+        <v>170262231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>470</v>
       </c>
@@ -6146,32 +6184,32 @@
       <c r="C62" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="1" t="s">
         <v>473</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G62" s="3">
-        <v>39.0</v>
+      <c r="G62" s="1">
+        <v>39</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I62" s="6" t="s">
         <v>475</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="K62" s="1">
-        <v>2.05262535E8</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="K62" s="11">
+        <v>205262535</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>477</v>
       </c>
@@ -6181,32 +6219,32 @@
       <c r="C63" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="1" t="s">
         <v>480</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G63" s="3">
-        <v>12.0</v>
+      <c r="G63" s="1">
+        <v>12</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I63" s="6" t="s">
         <v>483</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="K63" s="8" t="s">
+      <c r="K63" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>484</v>
       </c>
@@ -6216,17 +6254,17 @@
       <c r="C64" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="1" t="s">
         <v>487</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G64" s="3">
-        <v>19.0</v>
+      <c r="G64" s="1">
+        <v>19</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>485</v>
@@ -6237,11 +6275,11 @@
       <c r="J64" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K64" s="1">
-        <v>1.05260437E8</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="K64" s="11">
+        <v>105260437</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>490</v>
       </c>
@@ -6251,17 +6289,17 @@
       <c r="C65" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="1" t="s">
         <v>493</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G65" s="3">
-        <v>10.0</v>
+      <c r="G65" s="1">
+        <v>10</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>495</v>
@@ -6272,11 +6310,11 @@
       <c r="J65" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="K65" s="8" t="s">
+      <c r="K65" s="12" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>499</v>
       </c>
@@ -6286,32 +6324,32 @@
       <c r="C66" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G66" s="3">
-        <v>3.0</v>
+      <c r="G66" s="1">
+        <v>3</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I66" s="2">
-        <v>4.006789498E12</v>
+        <v>4006789498000</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="K66" s="8" t="s">
+      <c r="K66" s="12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>506</v>
       </c>
@@ -6321,17 +6359,17 @@
       <c r="C67" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="1" t="s">
         <v>509</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G67" s="3">
-        <v>41.0</v>
+      <c r="G67" s="1">
+        <v>41</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>507</v>
@@ -6342,11 +6380,11 @@
       <c r="J67" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K67" s="1">
-        <v>2.15274247E8</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="K67" s="11">
+        <v>215274247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>512</v>
       </c>
@@ -6356,32 +6394,32 @@
       <c r="C68" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="1" t="s">
         <v>515</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G68" s="3">
-        <v>12.0</v>
+      <c r="G68" s="1">
+        <v>12</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I68" s="6" t="s">
         <v>518</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="K68" s="8" t="s">
+      <c r="K68" s="12" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>521</v>
       </c>
@@ -6391,32 +6429,32 @@
       <c r="C69" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="1" t="s">
         <v>524</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G69" s="3">
-        <v>17.0</v>
+      <c r="G69" s="1">
+        <v>17</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>522</v>
       </c>
       <c r="I69" s="2">
-        <v>1.33135000023E12</v>
+        <v>1331350000230</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K69" s="8" t="s">
+      <c r="K69" s="12" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>528</v>
       </c>
@@ -6426,32 +6464,32 @@
       <c r="C70" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="1" t="s">
         <v>531</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G70" s="3">
-        <v>12.0</v>
+      <c r="G70" s="1">
+        <v>12</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I70" s="6" t="s">
         <v>534</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="K70" s="8" t="s">
+      <c r="K70" s="12" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>537</v>
       </c>
@@ -6461,32 +6499,32 @@
       <c r="C71" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="1" t="s">
         <v>540</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G71" s="3">
-        <v>17.0</v>
+      <c r="G71" s="1">
+        <v>17</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>538</v>
       </c>
       <c r="I71" s="2">
-        <v>1.01107060221E12</v>
+        <v>1011070602210</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="K71" s="8" t="s">
+      <c r="K71" s="12" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>544</v>
       </c>
@@ -6496,17 +6534,17 @@
       <c r="C72" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="1" t="s">
         <v>547</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G72" s="3">
-        <v>30.0</v>
+      <c r="G72" s="1">
+        <v>30</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>545</v>
@@ -6517,11 +6555,11 @@
       <c r="J72" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="K72" s="1">
-        <v>1.60263703E8</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="K72" s="11">
+        <v>160263703</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>552</v>
       </c>
@@ -6531,17 +6569,17 @@
       <c r="C73" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G73" s="3">
-        <v>10.0</v>
+      <c r="G73" s="1">
+        <v>10</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>557</v>
@@ -6552,11 +6590,11 @@
       <c r="J73" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="K73" s="8" t="s">
+      <c r="K73" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>560</v>
       </c>
@@ -6566,32 +6604,32 @@
       <c r="C74" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="1" t="s">
         <v>563</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G74" s="3">
-        <v>17.0</v>
+      <c r="G74" s="1">
+        <v>17</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>565</v>
       </c>
       <c r="I74" s="2">
-        <v>1.15106025609E12</v>
+        <v>1151060256090</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="K74" s="8" t="s">
+      <c r="K74" s="12" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>568</v>
       </c>
@@ -6601,32 +6639,32 @@
       <c r="C75" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="1" t="s">
         <v>571</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G75" s="3">
-        <v>18.0</v>
+      <c r="G75" s="1">
+        <v>18</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="I75" s="6" t="s">
         <v>573</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="K75" s="8" t="s">
+      <c r="K75" s="12" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>576</v>
       </c>
@@ -6636,32 +6674,32 @@
       <c r="C76" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="1" t="s">
         <v>579</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G76" s="3">
-        <v>12.0</v>
+      <c r="G76" s="1">
+        <v>12</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>577</v>
       </c>
       <c r="I76" s="2">
-        <v>5.080126000048E12</v>
+        <v>5080126000048</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="K76" s="8" t="s">
+      <c r="K76" s="12" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>583</v>
       </c>
@@ -6671,32 +6709,32 @@
       <c r="C77" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="1" t="s">
         <v>586</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G77" s="3">
-        <v>32.0</v>
+      <c r="G77" s="1">
+        <v>32</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="I77" s="7" t="s">
+      <c r="I77" s="6" t="s">
         <v>588</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="K77" s="1">
-        <v>2.35260307E8</v>
-      </c>
-    </row>
-    <row r="78">
+      <c r="K77" s="11">
+        <v>235260307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>590</v>
       </c>
@@ -6706,17 +6744,17 @@
       <c r="C78" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="1" t="s">
         <v>593</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G78" s="3">
-        <v>23.0</v>
+      <c r="G78" s="1">
+        <v>23</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>591</v>
@@ -6727,11 +6765,11 @@
       <c r="J78" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="K78" s="1">
-        <v>1.25260138E8</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="K78" s="11">
+        <v>125260138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>597</v>
       </c>
@@ -6741,17 +6779,17 @@
       <c r="C79" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="1" t="s">
         <v>600</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G79" s="3">
-        <v>10.0</v>
+      <c r="G79" s="1">
+        <v>10</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>602</v>
@@ -6762,11 +6800,11 @@
       <c r="J79" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="K79" s="8" t="s">
+      <c r="K79" s="12" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>606</v>
       </c>
@@ -6776,32 +6814,32 @@
       <c r="C80" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="1" t="s">
         <v>609</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="G80" s="3">
-        <v>24.0</v>
+      <c r="G80" s="1">
+        <v>24</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>611</v>
       </c>
       <c r="I80" s="2">
-        <v>5.008000012202E12</v>
+        <v>5008000012202</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K80" s="1">
-        <v>1.30260431E8</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="K80" s="11">
+        <v>130260431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>612</v>
       </c>
@@ -6811,7 +6849,7 @@
       <c r="C81" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="1" t="s">
         <v>615</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -6820,58 +6858,58 @@
       <c r="F81" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G81" s="3">
-        <v>47.0</v>
+      <c r="G81" s="1">
+        <v>47</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="I81" s="7" t="s">
+      <c r="I81" s="6" t="s">
         <v>617</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K81" s="1">
-        <v>2.4526463E8</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="K81" s="11">
+        <v>245264630</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="7" t="s">
         <v>620</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="1" t="s">
         <v>622</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G82" s="3">
-        <v>32.0</v>
+      <c r="G82" s="1">
+        <v>32</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>624</v>
       </c>
       <c r="I82" s="2">
-        <v>2.219116000764E12</v>
+        <v>2219116000764</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="K82" s="1">
-        <v>1.70260525E8</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="K82" s="11">
+        <v>170260525</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>626</v>
       </c>
@@ -6881,32 +6919,32 @@
       <c r="C83" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="1" t="s">
         <v>629</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="G83" s="3">
-        <v>14.0</v>
+      <c r="G83" s="1">
+        <v>14</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>632</v>
       </c>
       <c r="I83" s="2">
-        <v>1.802004439E9</v>
+        <v>1802004439</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="K83" s="8" t="s">
+      <c r="K83" s="12" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>635</v>
       </c>
@@ -6916,17 +6954,17 @@
       <c r="C84" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="1" t="s">
         <v>638</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G84" s="3">
-        <v>10.0</v>
+      <c r="G84" s="1">
+        <v>10</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>636</v>
@@ -6937,11 +6975,11 @@
       <c r="J84" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="K84" s="8" t="s">
+      <c r="K84" s="12" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>643</v>
       </c>
@@ -6951,32 +6989,32 @@
       <c r="C85" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="1" t="s">
         <v>646</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G85" s="3">
-        <v>16.0</v>
+      <c r="G85" s="1">
+        <v>16</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>648</v>
       </c>
       <c r="I85" s="2">
-        <v>1.011100043472E12</v>
+        <v>1011100043472</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="K85" s="8" t="s">
+      <c r="K85" s="12" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>651</v>
       </c>
@@ -6986,32 +7024,32 @@
       <c r="C86" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="1" t="s">
         <v>654</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G86" s="3">
-        <v>16.0</v>
+      <c r="G86" s="1">
+        <v>16</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>656</v>
       </c>
       <c r="I86" s="2">
-        <v>1.031100035591E12</v>
+        <v>1031100035591</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="K86" s="8" t="s">
+      <c r="K86" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>658</v>
       </c>
@@ -7021,32 +7059,32 @@
       <c r="C87" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="1" t="s">
         <v>661</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G87" s="3">
-        <v>39.0</v>
+      <c r="G87" s="1">
+        <v>39</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="I87" s="6" t="s">
         <v>664</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="K87" s="1">
-        <v>2.05264038E8</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="K87" s="11">
+        <v>205264038</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>666</v>
       </c>
@@ -7056,32 +7094,32 @@
       <c r="C88" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="1" t="s">
         <v>669</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G88" s="3">
-        <v>22.0</v>
+      <c r="G88" s="1">
+        <v>22</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="I88" s="7" t="s">
+      <c r="I88" s="6" t="s">
         <v>672</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="K88" s="1">
-        <v>1.20260438E8</v>
-      </c>
-    </row>
-    <row r="89">
+      <c r="K88" s="11">
+        <v>120260438</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>674</v>
       </c>
@@ -7091,17 +7129,17 @@
       <c r="C89" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="1" t="s">
         <v>677</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G89" s="3">
-        <v>21.0</v>
+      <c r="G89" s="1">
+        <v>21</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>675</v>
@@ -7112,11 +7150,11 @@
       <c r="J89" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K89" s="1">
-        <v>1.15261121E8</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="K89" s="11">
+        <v>115261121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>680</v>
       </c>
@@ -7126,32 +7164,32 @@
       <c r="C90" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="1" t="s">
         <v>683</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G90" s="3">
-        <v>39.0</v>
+      <c r="G90" s="1">
+        <v>39</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="I90" s="7" t="s">
+      <c r="I90" s="6" t="s">
         <v>685</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="K90" s="1">
-        <v>2.05270301E8</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="K90" s="11">
+        <v>205270301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>687</v>
       </c>
@@ -7161,17 +7199,17 @@
       <c r="C91" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="1" t="s">
         <v>690</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G91" s="3">
-        <v>10.0</v>
+      <c r="G91" s="1">
+        <v>10</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>688</v>
@@ -7182,11 +7220,11 @@
       <c r="J91" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K91" s="8" t="s">
+      <c r="K91" s="12" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>695</v>
       </c>
@@ -7196,32 +7234,32 @@
       <c r="C92" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="1" t="s">
         <v>698</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G92" s="3">
-        <v>39.0</v>
+      <c r="G92" s="1">
+        <v>39</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="I92" s="7" t="s">
+      <c r="I92" s="6" t="s">
         <v>700</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="K92" s="1">
-        <v>2.05264638E8</v>
-      </c>
-    </row>
-    <row r="93">
+      <c r="K92" s="11">
+        <v>205264638</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>702</v>
       </c>
@@ -7231,32 +7269,32 @@
       <c r="C93" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="1" t="s">
         <v>705</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G93" s="3">
-        <v>39.0</v>
+      <c r="G93" s="1">
+        <v>39</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="I93" s="7" t="s">
+      <c r="I93" s="6" t="s">
         <v>707</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="K93" s="1">
-        <v>2.05270248E8</v>
-      </c>
-    </row>
-    <row r="94">
+      <c r="K93" s="11">
+        <v>205270248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>709</v>
       </c>
@@ -7266,32 +7304,32 @@
       <c r="C94" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="1" t="s">
         <v>712</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G94" s="3">
-        <v>12.0</v>
+      <c r="G94" s="1">
+        <v>12</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="I94" s="7" t="s">
+      <c r="I94" s="6" t="s">
         <v>714</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="K94" s="8" t="s">
+      <c r="K94" s="12" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>717</v>
       </c>
@@ -7301,32 +7339,32 @@
       <c r="C95" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="1" t="s">
         <v>720</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G95" s="3">
-        <v>2.0</v>
+      <c r="G95" s="1">
+        <v>2</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="I95" s="7" t="s">
+      <c r="I95" s="6" t="s">
         <v>722</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="K95" s="8" t="s">
+      <c r="K95" s="12" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>725</v>
       </c>
@@ -7336,32 +7374,32 @@
       <c r="C96" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="1" t="s">
         <v>728</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G96" s="3">
-        <v>12.0</v>
+      <c r="G96" s="1">
+        <v>12</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="I96" s="7" t="s">
+      <c r="I96" s="6" t="s">
         <v>730</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="K96" s="8" t="s">
+      <c r="K96" s="12" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>732</v>
       </c>
@@ -7371,32 +7409,32 @@
       <c r="C97" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="1" t="s">
         <v>735</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G97" s="3">
-        <v>12.0</v>
+      <c r="G97" s="1">
+        <v>12</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="I97" s="7" t="s">
+      <c r="I97" s="6" t="s">
         <v>737</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="K97" s="8" t="s">
+      <c r="K97" s="12" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>740</v>
       </c>
@@ -7406,32 +7444,32 @@
       <c r="C98" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="1" t="s">
         <v>743</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G98" s="3">
-        <v>22.0</v>
+      <c r="G98" s="1">
+        <v>22</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="I98" s="7" t="s">
+      <c r="I98" s="6" t="s">
         <v>746</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="K98" s="1">
-        <v>1.20274879E8</v>
-      </c>
-    </row>
-    <row r="99">
+      <c r="K98" s="11">
+        <v>120274879</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>748</v>
       </c>
@@ -7441,33 +7479,33 @@
       <c r="C99" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="1" t="s">
         <v>751</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="G99" s="3">
-        <v>36.0</v>
+      <c r="G99" s="1">
+        <v>36</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>753</v>
       </c>
       <c r="I99" s="2">
-        <v>4.01911100004825E14</v>
+        <v>401911100004825</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="K99" s="1">
-        <v>1.90260718E8</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="8" t="s">
+      <c r="K99" s="11">
+        <v>190260718</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
         <v>755</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -7476,32 +7514,32 @@
       <c r="C100" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="1" t="s">
         <v>758</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G100" s="3">
-        <v>43.0</v>
+      <c r="G100" s="1">
+        <v>43</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>756</v>
       </c>
       <c r="I100" s="2">
-        <v>1.502690793001E12</v>
+        <v>1502690793001</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="K100" s="1">
-        <v>2.25260991E8</v>
-      </c>
-    </row>
-    <row r="101">
+      <c r="K100" s="11">
+        <v>225260991</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>761</v>
       </c>
@@ -7511,17 +7549,17 @@
       <c r="C101" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="1" t="s">
         <v>764</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G101" s="3">
-        <v>10.0</v>
+      <c r="G101" s="1">
+        <v>10</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>762</v>
@@ -7532,11 +7570,11 @@
       <c r="J101" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="K101" s="8" t="s">
+      <c r="K101" s="12" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>769</v>
       </c>
@@ -7546,32 +7584,32 @@
       <c r="C102" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="1" t="s">
         <v>772</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G102" s="3">
-        <v>31.0</v>
+      <c r="G102" s="1">
+        <v>31</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="I102" s="7" t="s">
+      <c r="I102" s="6" t="s">
         <v>774</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="K102" s="1">
-        <v>1.65274247E8</v>
-      </c>
-    </row>
-    <row r="103">
+      <c r="K102" s="11">
+        <v>165274247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>775</v>
       </c>
@@ -7581,17 +7619,17 @@
       <c r="C103" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="1" t="s">
         <v>778</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F103" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G103" s="3">
-        <v>10.0</v>
+      <c r="G103" s="1">
+        <v>10</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>776</v>
@@ -7602,11 +7640,11 @@
       <c r="J103" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="K103" s="8" t="s">
+      <c r="K103" s="12" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>783</v>
       </c>
@@ -7616,32 +7654,32 @@
       <c r="C104" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="1" t="s">
         <v>786</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G104" s="3">
-        <v>43.0</v>
+      <c r="G104" s="1">
+        <v>43</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>788</v>
       </c>
       <c r="I104" s="2">
-        <v>1.253176628001E12</v>
+        <v>1253176628001</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K104" s="1">
-        <v>2.25261729E8</v>
-      </c>
-    </row>
-    <row r="105">
+      <c r="K104" s="11">
+        <v>225261729</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>789</v>
       </c>
@@ -7651,32 +7689,32 @@
       <c r="C105" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="1" t="s">
         <v>792</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G105" s="3">
-        <v>31.0</v>
+      <c r="G105" s="1">
+        <v>31</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="I105" s="7" t="s">
+      <c r="I105" s="6" t="s">
         <v>795</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K105" s="1">
-        <v>1.65260435E8</v>
-      </c>
-    </row>
-    <row r="106">
+      <c r="K105" s="11">
+        <v>165260435</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>796</v>
       </c>
@@ -7686,32 +7724,32 @@
       <c r="C106" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="1" t="s">
         <v>799</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F106" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G106" s="3">
-        <v>18.0</v>
+      <c r="G106" s="1">
+        <v>18</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="I106" s="7" t="s">
+      <c r="I106" s="6" t="s">
         <v>802</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="K106" s="1">
-        <v>1.00275593E8</v>
-      </c>
-    </row>
-    <row r="107">
+      <c r="K106" s="11">
+        <v>100275593</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>804</v>
       </c>
@@ -7721,32 +7759,32 @@
       <c r="C107" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="1" t="s">
         <v>807</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="F107" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G107" s="3">
-        <v>2.0</v>
+      <c r="G107" s="1">
+        <v>2</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="I107" s="7" t="s">
+      <c r="I107" s="6" t="s">
         <v>809</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="K107" s="8" t="s">
+      <c r="K107" s="12" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>812</v>
       </c>
@@ -7756,32 +7794,32 @@
       <c r="C108" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="1" t="s">
         <v>815</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="F108" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G108" s="3">
-        <v>43.0</v>
+      <c r="G108" s="1">
+        <v>43</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>817</v>
       </c>
       <c r="I108" s="2">
-        <v>1.401642128001E12</v>
+        <v>1401642128001</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K108" s="1">
-        <v>2.25274187E8</v>
-      </c>
-    </row>
-    <row r="109">
+      <c r="K108" s="11">
+        <v>225274187</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>818</v>
       </c>
@@ -7791,32 +7829,32 @@
       <c r="C109" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="1" t="s">
         <v>821</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G109" s="3">
-        <v>26.0</v>
+      <c r="G109" s="1">
+        <v>26</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>819</v>
       </c>
       <c r="I109" s="2">
-        <v>1.13411128413983E14</v>
+        <v>113411128413983</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="K109" s="1">
-        <v>1.40274183E8</v>
-      </c>
-    </row>
-    <row r="110">
+      <c r="K109" s="11">
+        <v>140274183</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>824</v>
       </c>
@@ -7826,32 +7864,32 @@
       <c r="C110" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="1" t="s">
         <v>827</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="F110" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="G110" s="3">
-        <v>36.0</v>
+      <c r="G110" s="1">
+        <v>36</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>825</v>
       </c>
       <c r="I110" s="2">
-        <v>4.01513100001007E14</v>
+        <v>401513100001007</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="K110" s="1">
-        <v>1.90274241E8</v>
-      </c>
-    </row>
-    <row r="111">
+      <c r="K110" s="11">
+        <v>190274241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>829</v>
       </c>
@@ -7861,32 +7899,32 @@
       <c r="C111" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="1" t="s">
         <v>832</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="F111" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G111" s="3">
-        <v>43.0</v>
+      <c r="G111" s="1">
+        <v>43</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>830</v>
       </c>
       <c r="I111" s="2">
-        <v>1.323591161001E12</v>
+        <v>1323591161001</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="K111" s="1">
-        <v>2.25261174E8</v>
-      </c>
-    </row>
-    <row r="112">
+      <c r="K111" s="11">
+        <v>225261174</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>835</v>
       </c>
@@ -7896,32 +7934,32 @@
       <c r="C112" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="1" t="s">
         <v>838</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G112" s="3">
-        <v>43.0</v>
+      <c r="G112" s="1">
+        <v>43</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>836</v>
       </c>
       <c r="I112" s="2">
-        <v>1.101811856001E12</v>
+        <v>1101811856001</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="K112" s="1">
-        <v>2.25261732E8</v>
-      </c>
-    </row>
-    <row r="113">
+      <c r="K112" s="11">
+        <v>225261732</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>841</v>
       </c>
@@ -7931,17 +7969,17 @@
       <c r="C113" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="1" t="s">
         <v>844</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F113" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G113" s="3">
-        <v>16.0</v>
+      <c r="G113" s="1">
+        <v>16</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>846</v>
@@ -7952,11 +7990,11 @@
       <c r="J113" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="K113" s="8" t="s">
+      <c r="K113" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>848</v>
       </c>
@@ -7966,7 +8004,7 @@
       <c r="C114" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="1" t="s">
         <v>851</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -7975,23 +8013,23 @@
       <c r="F114" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="G114" s="3">
-        <v>50.0</v>
+      <c r="G114" s="1">
+        <v>50</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>854</v>
       </c>
       <c r="I114" s="2">
-        <v>5.19333300001294E14</v>
+        <v>519333300001294</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="K114" s="1">
-        <v>2.60270483E8</v>
-      </c>
-    </row>
-    <row r="115">
+      <c r="K114" s="11">
+        <v>260270483</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>856</v>
       </c>
@@ -8001,32 +8039,32 @@
       <c r="C115" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="1" t="s">
         <v>859</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F115" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G115" s="3">
-        <v>17.0</v>
+      <c r="G115" s="1">
+        <v>17</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>857</v>
       </c>
       <c r="I115" s="2">
-        <v>1.221070146246E12</v>
+        <v>1221070146246</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K115" s="8" t="s">
+      <c r="K115" s="12" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>862</v>
       </c>
@@ -8036,32 +8074,32 @@
       <c r="C116" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="1" t="s">
         <v>865</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F116" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="G116" s="3">
-        <v>36.0</v>
+      <c r="G116" s="1">
+        <v>36</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>863</v>
       </c>
       <c r="I116" s="2">
-        <v>4.02711100002622E14</v>
+        <v>402711100002622</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="K116" s="1">
-        <v>1.902602E8</v>
-      </c>
-    </row>
-    <row r="117">
+      <c r="K116" s="11">
+        <v>190260200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>868</v>
       </c>
@@ -8071,17 +8109,17 @@
       <c r="C117" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="1" t="s">
         <v>871</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="F117" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G117" s="3">
-        <v>3.0</v>
+      <c r="G117" s="1">
+        <v>3</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>873</v>
@@ -8092,11 +8130,11 @@
       <c r="J117" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="K117" s="8" t="s">
+      <c r="K117" s="12" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>877</v>
       </c>
@@ -8106,32 +8144,32 @@
       <c r="C118" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="1" t="s">
         <v>880</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F118" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G118" s="3">
-        <v>26.0</v>
+      <c r="G118" s="1">
+        <v>26</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="I118" s="7" t="s">
+      <c r="I118" s="6" t="s">
         <v>882</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K118" s="1">
-        <v>1.40260434E8</v>
-      </c>
-    </row>
-    <row r="119">
+      <c r="K118" s="11">
+        <v>140260434</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>883</v>
       </c>
@@ -8141,32 +8179,32 @@
       <c r="C119" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="1" t="s">
         <v>886</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="F119" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G119" s="3">
-        <v>18.0</v>
+      <c r="G119" s="1">
+        <v>18</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="I119" s="7" t="s">
+      <c r="I119" s="6" t="s">
         <v>888</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="K119" s="1">
-        <v>1.00275201E8</v>
-      </c>
-    </row>
-    <row r="120">
+      <c r="K119" s="11">
+        <v>100275201</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>890</v>
       </c>
@@ -8176,32 +8214,32 @@
       <c r="C120" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="1" t="s">
         <v>893</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="F120" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G120" s="3">
-        <v>43.0</v>
+      <c r="G120" s="1">
+        <v>43</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>895</v>
       </c>
       <c r="I120" s="2">
-        <v>1.103624573001E12</v>
+        <v>1103624573001</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K120" s="1">
-        <v>2.25261732E8</v>
-      </c>
-    </row>
-    <row r="121">
+      <c r="K120" s="11">
+        <v>225261732</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>896</v>
       </c>
@@ -8211,17 +8249,17 @@
       <c r="C121" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="1" t="s">
         <v>899</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="F121" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G121" s="3">
-        <v>32.0</v>
+      <c r="G121" s="1">
+        <v>32</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>901</v>
@@ -8232,11 +8270,11 @@
       <c r="J121" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K121" s="1">
-        <v>2.35260431E8</v>
-      </c>
-    </row>
-    <row r="122">
+      <c r="K121" s="11">
+        <v>235260431</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>903</v>
       </c>
@@ -8246,17 +8284,17 @@
       <c r="C122" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="1" t="s">
         <v>906</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="F122" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G122" s="3">
-        <v>10.0</v>
+      <c r="G122" s="1">
+        <v>10</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>908</v>
@@ -8267,11 +8305,11 @@
       <c r="J122" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K122" s="8" t="s">
+      <c r="K122" s="12" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>911</v>
       </c>
@@ -8281,32 +8319,32 @@
       <c r="C123" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="1" t="s">
         <v>914</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="F123" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G123" s="3">
-        <v>33.0</v>
+      <c r="G123" s="1">
+        <v>33</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>916</v>
       </c>
       <c r="I123" s="2">
-        <v>2.438901049586E12</v>
+        <v>2438901049586</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="K123" s="1">
-        <v>1.75274879E8</v>
-      </c>
-    </row>
-    <row r="124">
+      <c r="K123" s="11">
+        <v>175274879</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>918</v>
       </c>
@@ -8316,17 +8354,17 @@
       <c r="C124" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="1" t="s">
         <v>921</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="F124" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G124" s="3">
-        <v>3.0</v>
+      <c r="G124" s="1">
+        <v>3</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>923</v>
@@ -8337,11 +8375,11 @@
       <c r="J124" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="K124" s="8" t="s">
+      <c r="K124" s="12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>926</v>
       </c>
@@ -8351,32 +8389,32 @@
       <c r="C125" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="1" t="s">
         <v>929</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="F125" s="5" t="s">
+      <c r="F125" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="G125" s="3">
-        <v>40.0</v>
+      <c r="G125" s="1">
+        <v>40</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="I125" s="7" t="s">
+      <c r="I125" s="6" t="s">
         <v>932</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K125" s="1">
-        <v>2.1026319E8</v>
-      </c>
-    </row>
-    <row r="126">
+      <c r="K125" s="11">
+        <v>210263190</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>933</v>
       </c>
@@ -8386,17 +8424,17 @@
       <c r="C126" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="1" t="s">
         <v>936</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="F126" s="5" t="s">
+      <c r="F126" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G126" s="3">
-        <v>16.0</v>
+      <c r="G126" s="1">
+        <v>16</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>934</v>
@@ -8407,11 +8445,11 @@
       <c r="J126" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="K126" s="8" t="s">
+      <c r="K126" s="12" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>941</v>
       </c>
@@ -8421,17 +8459,17 @@
       <c r="C127" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="1" t="s">
         <v>944</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="F127" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G127" s="3">
-        <v>10.0</v>
+      <c r="G127" s="1">
+        <v>10</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>942</v>
@@ -8442,11 +8480,11 @@
       <c r="J127" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="K127" s="8" t="s">
+      <c r="K127" s="12" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>949</v>
       </c>
@@ -8456,7 +8494,7 @@
       <c r="C128" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="1" t="s">
         <v>952</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -8465,23 +8503,23 @@
       <c r="F128" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G128" s="3">
-        <v>47.0</v>
+      <c r="G128" s="1">
+        <v>47</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="I128" s="7" t="s">
+      <c r="I128" s="6" t="s">
         <v>955</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="K128" s="1">
-        <v>2.4526463E8</v>
-      </c>
-    </row>
-    <row r="129">
+      <c r="K128" s="11">
+        <v>245264630</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>957</v>
       </c>
@@ -8491,32 +8529,32 @@
       <c r="C129" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="1" t="s">
         <v>960</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="F129" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G129" s="3">
-        <v>15.0</v>
+      <c r="G129" s="1">
+        <v>15</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>958</v>
       </c>
       <c r="I129" s="2">
-        <v>1.02100000353E12</v>
+        <v>1021000003530</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="K129" s="8" t="s">
+      <c r="K129" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>963</v>
       </c>
@@ -8526,17 +8564,17 @@
       <c r="C130" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="1" t="s">
         <v>966</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="F130" s="5" t="s">
+      <c r="F130" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G130" s="3">
-        <v>10.0</v>
+      <c r="G130" s="1">
+        <v>10</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>964</v>
@@ -8547,11 +8585,11 @@
       <c r="J130" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K130" s="1">
-        <v>6.0261726E7</v>
-      </c>
-    </row>
-    <row r="131">
+      <c r="K130" s="11">
+        <v>60261726</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>969</v>
       </c>
@@ -8561,17 +8599,17 @@
       <c r="C131" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="1" t="s">
         <v>972</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="F131" s="5" t="s">
+      <c r="F131" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G131" s="3">
-        <v>3.0</v>
+      <c r="G131" s="1">
+        <v>3</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>974</v>
@@ -8582,11 +8620,11 @@
       <c r="J131" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K131" s="8" t="s">
+      <c r="K131" s="12" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
         <v>977</v>
       </c>
@@ -8596,7 +8634,7 @@
       <c r="C132" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="1" t="s">
         <v>980</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -8605,23 +8643,23 @@
       <c r="F132" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G132" s="3">
-        <v>47.0</v>
+      <c r="G132" s="1">
+        <v>47</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>978</v>
       </c>
       <c r="I132" s="2">
-        <v>1.95210100000225E15</v>
+        <v>1952101000002250</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="K132" s="1">
-        <v>2.45261312E8</v>
-      </c>
-    </row>
-    <row r="133">
+      <c r="K132" s="11">
+        <v>245261312</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>983</v>
       </c>
@@ -8631,32 +8669,32 @@
       <c r="C133" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="1" t="s">
         <v>986</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="F133" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G133" s="3">
-        <v>12.0</v>
+      <c r="G133" s="1">
+        <v>12</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>984</v>
       </c>
       <c r="I133" s="2">
-        <v>6.0333001136E10</v>
+        <v>60333001136</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="K133" s="8" t="s">
+      <c r="K133" s="12" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>990</v>
       </c>
@@ -8666,32 +8704,32 @@
       <c r="C134" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="1" t="s">
         <v>993</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="F134" s="5" t="s">
+      <c r="F134" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="G134" s="3">
-        <v>50.0</v>
+      <c r="G134" s="1">
+        <v>50</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="I134" s="7" t="s">
+      <c r="I134" s="6" t="s">
         <v>995</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K134" s="1">
-        <v>2.60261184E8</v>
-      </c>
-    </row>
-    <row r="135">
+      <c r="K134" s="11">
+        <v>260261184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>996</v>
       </c>
@@ -8701,17 +8739,17 @@
       <c r="C135" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="1" t="s">
         <v>999</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="F135" s="5" t="s">
+      <c r="F135" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G135" s="3">
-        <v>10.0</v>
+      <c r="G135" s="1">
+        <v>10</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>997</v>
@@ -8722,11 +8760,11 @@
       <c r="J135" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K135" s="1">
-        <v>6.0261726E7</v>
-      </c>
-    </row>
-    <row r="136">
+      <c r="K135" s="11">
+        <v>60261726</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>1002</v>
       </c>
@@ -8736,7 +8774,7 @@
       <c r="C136" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="1" t="s">
         <v>1005</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -8745,8 +8783,8 @@
       <c r="F136" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G136" s="3">
-        <v>47.0</v>
+      <c r="G136" s="1">
+        <v>47</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>1006</v>
@@ -8757,11 +8795,11 @@
       <c r="J136" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K136" s="1">
-        <v>2.45263707E8</v>
-      </c>
-    </row>
-    <row r="137">
+      <c r="K136" s="11">
+        <v>245263707</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>1007</v>
       </c>
@@ -8771,17 +8809,17 @@
       <c r="C137" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="F137" s="5" t="s">
+      <c r="F137" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G137" s="3">
-        <v>3.0</v>
+      <c r="G137" s="1">
+        <v>3</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>1012</v>
@@ -8792,11 +8830,11 @@
       <c r="J137" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="K137" s="8" t="s">
+      <c r="K137" s="12" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>1016</v>
       </c>
@@ -8806,17 +8844,17 @@
       <c r="C138" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="1" t="s">
         <v>1019</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="F138" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G138" s="3">
-        <v>21.0</v>
+      <c r="G138" s="1">
+        <v>21</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>1021</v>
@@ -8827,11 +8865,11 @@
       <c r="J138" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="K138" s="1">
-        <v>1.15261121E8</v>
-      </c>
-    </row>
-    <row r="139">
+      <c r="K138" s="11">
+        <v>115261121</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>1024</v>
       </c>
@@ -8841,17 +8879,17 @@
       <c r="C139" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="F139" s="5" t="s">
+      <c r="F139" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G139" s="3">
-        <v>23.0</v>
+      <c r="G139" s="1">
+        <v>23</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>1025</v>
@@ -8862,11 +8900,11 @@
       <c r="J139" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="K139" s="1">
-        <v>1.25261724E8</v>
-      </c>
-    </row>
-    <row r="140">
+      <c r="K139" s="11">
+        <v>125261724</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>1031</v>
       </c>
@@ -8876,32 +8914,32 @@
       <c r="C140" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="1" t="s">
         <v>1034</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="F140" s="5" t="s">
+      <c r="F140" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G140" s="3">
-        <v>17.0</v>
+      <c r="G140" s="1">
+        <v>17</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="I140" s="2">
-        <v>1.131070138103E12</v>
+        <v>1131070138103</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="K140" s="8" t="s">
+      <c r="K140" s="12" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>1037</v>
       </c>
@@ -8911,32 +8949,32 @@
       <c r="C141" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="1" t="s">
         <v>1040</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="F141" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G141" s="3">
-        <v>17.0</v>
+      <c r="G141" s="1">
+        <v>17</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>1038</v>
       </c>
       <c r="I141" s="2">
-        <v>1.081360209275E12</v>
+        <v>1081360209275</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="K141" s="8" t="s">
+      <c r="K141" s="12" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>1044</v>
       </c>
@@ -8946,32 +8984,32 @@
       <c r="C142" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="1" t="s">
         <v>1047</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="F142" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="G142" s="3">
-        <v>53.0</v>
+      <c r="G142" s="1">
+        <v>53</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="I142" s="2">
-        <v>1.10111100000822E14</v>
+        <v>110111100000822</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="K142" s="1">
-        <v>2.75260217E8</v>
-      </c>
-    </row>
-    <row r="143">
+      <c r="K142" s="11">
+        <v>275260217</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>1051</v>
       </c>
@@ -8981,32 +9019,32 @@
       <c r="C143" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="1" t="s">
         <v>1054</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F143" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G143" s="3">
-        <v>31.0</v>
+      <c r="G143" s="1">
+        <v>31</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="I143" s="7" t="s">
+      <c r="I143" s="6" t="s">
         <v>1057</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="K143" s="1">
-        <v>1.65275354E8</v>
-      </c>
-    </row>
-    <row r="144">
+      <c r="K143" s="11">
+        <v>165275354</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>1059</v>
       </c>
@@ -9016,32 +9054,32 @@
       <c r="C144" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="1" t="s">
         <v>1062</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="F144" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G144" s="3">
-        <v>17.0</v>
+      <c r="G144" s="1">
+        <v>17</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>1064</v>
       </c>
       <c r="I144" s="2">
-        <v>1.331350202563E12</v>
+        <v>1331350202563</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="K144" s="8" t="s">
+      <c r="K144" s="12" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>1066</v>
       </c>
@@ -9051,17 +9089,17 @@
       <c r="C145" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="1" t="s">
         <v>1069</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="F145" s="5" t="s">
+      <c r="F145" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G145" s="3">
-        <v>30.0</v>
+      <c r="G145" s="1">
+        <v>30</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>1071</v>
@@ -9072,11 +9110,11 @@
       <c r="J145" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="K145" s="1">
-        <v>1.60271908E8</v>
-      </c>
-    </row>
-    <row r="146">
+      <c r="K145" s="11">
+        <v>160271908</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>1074</v>
       </c>
@@ -9086,17 +9124,17 @@
       <c r="C146" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="1" t="s">
         <v>1077</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="F146" s="5" t="s">
+      <c r="F146" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G146" s="3">
-        <v>41.0</v>
+      <c r="G146" s="1">
+        <v>41</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>1079</v>
@@ -9107,11 +9145,11 @@
       <c r="J146" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K146" s="1">
-        <v>2.15261726E8</v>
-      </c>
-    </row>
-    <row r="147">
+      <c r="K146" s="11">
+        <v>215261726</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>1081</v>
       </c>
@@ -9121,17 +9159,17 @@
       <c r="C147" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="1" t="s">
         <v>1084</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="F147" s="5" t="s">
+      <c r="F147" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G147" s="3">
-        <v>32.0</v>
+      <c r="G147" s="1">
+        <v>32</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>1082</v>
@@ -9142,11 +9180,11 @@
       <c r="J147" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="K147" s="1">
-        <v>2.35271938E8</v>
-      </c>
-    </row>
-    <row r="148">
+      <c r="K147" s="11">
+        <v>235271938</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>1088</v>
       </c>
@@ -9156,17 +9194,17 @@
       <c r="C148" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="1" t="s">
         <v>1091</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="F148" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G148" s="3">
-        <v>10.0</v>
+      <c r="G148" s="1">
+        <v>10</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>1093</v>
@@ -9177,12 +9215,12 @@
       <c r="J148" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K148" s="1">
-        <v>6.0261726E7</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="8" t="s">
+      <c r="K148" s="11">
+        <v>60261726</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149" s="5" t="s">
         <v>1095</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -9191,32 +9229,32 @@
       <c r="C149" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="1" t="s">
         <v>1098</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="F149" s="5" t="s">
+      <c r="F149" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G149" s="3">
-        <v>26.0</v>
+      <c r="G149" s="1">
+        <v>26</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>1100</v>
       </c>
       <c r="I149" s="2">
-        <v>1.1331312533601E13</v>
+        <v>11331312533601</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="K149" s="1">
-        <v>1.40271094E8</v>
-      </c>
-    </row>
-    <row r="150">
+      <c r="K149" s="11">
+        <v>140271094</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>1102</v>
       </c>
@@ -9226,32 +9264,32 @@
       <c r="C150" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="1" t="s">
         <v>1105</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="F150" s="5" t="s">
+      <c r="F150" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G150" s="3">
-        <v>31.0</v>
+      <c r="G150" s="1">
+        <v>31</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="I150" s="7" t="s">
+      <c r="I150" s="6" t="s">
         <v>1107</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K150" s="1">
-        <v>1.65261726E8</v>
-      </c>
-    </row>
-    <row r="151">
+      <c r="K150" s="11">
+        <v>165261726</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>1108</v>
       </c>
@@ -9261,17 +9299,17 @@
       <c r="C151" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" s="1" t="s">
         <v>1111</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="F151" s="5" t="s">
+      <c r="F151" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="G151" s="3">
-        <v>24.0</v>
+      <c r="G151" s="1">
+        <v>24</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>1109</v>
@@ -9282,11 +9320,11 @@
       <c r="J151" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="K151" s="1">
-        <v>1.30261335E8</v>
-      </c>
-    </row>
-    <row r="152">
+      <c r="K151" s="11">
+        <v>130261335</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>1114</v>
       </c>
@@ -9296,17 +9334,17 @@
       <c r="C152" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="1" t="s">
         <v>1117</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="F152" s="5" t="s">
+      <c r="F152" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G152" s="3">
-        <v>10.0</v>
+      <c r="G152" s="1">
+        <v>10</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>1119</v>
@@ -9317,11 +9355,11 @@
       <c r="J152" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="K152" s="8" t="s">
+      <c r="K152" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>1122</v>
       </c>
@@ -9331,67 +9369,67 @@
       <c r="C153" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="1" t="s">
         <v>1125</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="F153" s="5" t="s">
+      <c r="F153" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G153" s="3">
-        <v>43.0</v>
+      <c r="G153" s="1">
+        <v>43</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>1127</v>
       </c>
       <c r="I153" s="2">
-        <v>1.223410549001E12</v>
+        <v>1223410549001</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="K153" s="1">
-        <v>2.25261732E8</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="10" t="s">
+      <c r="K153" s="11">
+        <v>225261732</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A154" s="8" t="s">
         <v>1129</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="8" t="s">
         <v>1130</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C154" s="8" t="s">
         <v>1131</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="E154" s="10" t="s">
+      <c r="E154" s="8" t="s">
         <v>1133</v>
       </c>
-      <c r="F154" s="11" t="s">
+      <c r="F154" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G154" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="H154" s="10" t="s">
+      <c r="G154" s="8">
+        <v>10</v>
+      </c>
+      <c r="H154" s="8" t="s">
         <v>1134</v>
       </c>
-      <c r="I154" s="13" t="s">
+      <c r="I154" s="10" t="s">
         <v>1135</v>
       </c>
-      <c r="J154" s="10" t="s">
+      <c r="J154" s="8" t="s">
         <v>1136</v>
       </c>
-      <c r="K154" s="14" t="s">
+      <c r="K154" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>1137</v>
       </c>
@@ -9401,17 +9439,17 @@
       <c r="C155" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="1" t="s">
         <v>1140</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="F155" s="5" t="s">
+      <c r="F155" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G155" s="3">
-        <v>10.0</v>
+      <c r="G155" s="1">
+        <v>10</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>1138</v>
@@ -9422,11 +9460,11 @@
       <c r="J155" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K155" s="8" t="s">
+      <c r="K155" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>1143</v>
       </c>
@@ -9436,32 +9474,32 @@
       <c r="C156" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="1" t="s">
         <v>1146</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="F156" s="5" t="s">
+      <c r="F156" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G156" s="3">
-        <v>15.0</v>
+      <c r="G156" s="1">
+        <v>15</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>1148</v>
       </c>
       <c r="I156" s="2">
-        <v>2.071500001135E12</v>
+        <v>2071500001135</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="K156" s="8" t="s">
+      <c r="K156" s="12" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>1151</v>
       </c>
@@ -9471,32 +9509,32 @@
       <c r="C157" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="1" t="s">
         <v>1154</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="F157" s="5" t="s">
+      <c r="F157" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="G157" s="3">
-        <v>40.0</v>
+      <c r="G157" s="1">
+        <v>40</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="I157" s="7" t="s">
+      <c r="I157" s="6" t="s">
         <v>1157</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="K157" s="1">
-        <v>2.10264694E8</v>
-      </c>
-    </row>
-    <row r="158">
+      <c r="K157" s="11">
+        <v>210264694</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
         <v>1159</v>
       </c>
@@ -9506,7 +9544,7 @@
       <c r="C158" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="1" t="s">
         <v>1162</v>
       </c>
       <c r="E158" s="1" t="s">
@@ -9515,23 +9553,23 @@
       <c r="F158" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="G158" s="3">
-        <v>46.0</v>
+      <c r="G158" s="1">
+        <v>46</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="I158" s="7" t="s">
+      <c r="I158" s="6" t="s">
         <v>1165</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="K158" s="1">
-        <v>2.40261812E8</v>
-      </c>
-    </row>
-    <row r="159">
+      <c r="K158" s="11">
+        <v>240261812</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>1167</v>
       </c>
@@ -9541,32 +9579,32 @@
       <c r="C159" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="1" t="s">
         <v>1170</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="F159" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G159" s="3">
-        <v>43.0</v>
+      <c r="G159" s="1">
+        <v>43</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>1168</v>
       </c>
       <c r="I159" s="2">
-        <v>1.502734410001E12</v>
+        <v>1502734410001</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="K159" s="1">
-        <v>2.25263701E8</v>
-      </c>
-    </row>
-    <row r="160">
+      <c r="K159" s="11">
+        <v>225263701</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
         <v>1173</v>
       </c>
@@ -9576,7 +9614,7 @@
       <c r="C160" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="1" t="s">
         <v>1176</v>
       </c>
       <c r="E160" s="1" t="s">
@@ -9585,23 +9623,23 @@
       <c r="F160" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G160" s="3">
-        <v>47.0</v>
+      <c r="G160" s="1">
+        <v>47</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="I160" s="7" t="s">
+      <c r="I160" s="6" t="s">
         <v>1178</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="K160" s="1">
-        <v>2.45275353E8</v>
-      </c>
-    </row>
-    <row r="161">
+      <c r="K160" s="11">
+        <v>245275353</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
         <v>1179</v>
       </c>
@@ -9611,7 +9649,7 @@
       <c r="C161" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" s="1" t="s">
         <v>1182</v>
       </c>
       <c r="E161" s="1" t="s">
@@ -9620,23 +9658,23 @@
       <c r="F161" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G161" s="3">
-        <v>47.0</v>
+      <c r="G161" s="1">
+        <v>47</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="I161" s="7" t="s">
+      <c r="I161" s="6" t="s">
         <v>1184</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="K161" s="1">
-        <v>2.4515397E8</v>
-      </c>
-    </row>
-    <row r="162">
+      <c r="K161" s="11">
+        <v>245153970</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>1186</v>
       </c>
@@ -9646,32 +9684,32 @@
       <c r="C162" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="1" t="s">
         <v>1189</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="F162" s="5" t="s">
+      <c r="F162" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G162" s="3">
-        <v>32.0</v>
+      <c r="G162" s="1">
+        <v>32</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>1191</v>
       </c>
       <c r="I162" s="2">
-        <v>2.110176020782E12</v>
+        <v>2110176020782</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="K162" s="1">
-        <v>1.70263193E8</v>
-      </c>
-    </row>
-    <row r="163">
+      <c r="K162" s="11">
+        <v>170263193</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>1193</v>
       </c>
@@ -9681,32 +9719,32 @@
       <c r="C163" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" s="1" t="s">
         <v>1196</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="F163" s="5" t="s">
+      <c r="F163" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="G163" s="3">
-        <v>36.0</v>
+      <c r="G163" s="1">
+        <v>36</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="I163" s="2">
-        <v>4.00511100008931E14</v>
+        <v>400511100008931</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="K163" s="1">
-        <v>1.90272322E8</v>
-      </c>
-    </row>
-    <row r="164">
+      <c r="K163" s="11">
+        <v>190272322</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>1199</v>
       </c>
@@ -9716,32 +9754,32 @@
       <c r="C164" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" s="1" t="s">
         <v>1202</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="F164" s="5" t="s">
+      <c r="F164" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G164" s="3">
-        <v>12.0</v>
+      <c r="G164" s="1">
+        <v>12</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="I164" s="7" t="s">
+      <c r="I164" s="6" t="s">
         <v>1204</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="K164" s="8" t="s">
+      <c r="K164" s="12" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>1207</v>
       </c>
@@ -9751,32 +9789,32 @@
       <c r="C165" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" s="1" t="s">
         <v>1210</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="F165" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G165" s="3">
-        <v>16.0</v>
+      <c r="G165" s="1">
+        <v>16</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>1208</v>
       </c>
       <c r="I165" s="2">
-        <v>2.701100000047E12</v>
+        <v>2701100000047</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="K165" s="8" t="s">
+      <c r="K165" s="12" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>1214</v>
       </c>
@@ -9786,35 +9824,35 @@
       <c r="C166" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="F166" s="5" t="s">
+      <c r="F166" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G166" s="3">
-        <v>2.0</v>
+      <c r="G166" s="1">
+        <v>2</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>1219</v>
       </c>
       <c r="I166" s="2">
-        <v>1.261020001532E12</v>
+        <v>1261020001532</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K166" s="8" t="s">
+      <c r="K166" s="12" t="s">
         <v>1220</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B82"/>
+    <hyperlink ref="B82" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>